--- a/data/pca/factorExposure/factorExposure_2017-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01805086092880363</v>
+        <v>0.01091982865221144</v>
       </c>
       <c r="C2">
-        <v>0.01677470496545713</v>
+        <v>-0.04256479848188267</v>
       </c>
       <c r="D2">
-        <v>-0.03377362421907881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03028228448582152</v>
+      </c>
+      <c r="E2">
+        <v>0.04210254171997726</v>
+      </c>
+      <c r="F2">
+        <v>-0.002174984393128105</v>
+      </c>
+      <c r="G2">
+        <v>0.1054446308250606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02246052380696172</v>
+        <v>0.03992417105164338</v>
       </c>
       <c r="C3">
-        <v>-0.003247832831851392</v>
+        <v>-0.1004157109977356</v>
       </c>
       <c r="D3">
-        <v>-0.09234874819250881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01771802417868409</v>
+      </c>
+      <c r="E3">
+        <v>0.1007524228385498</v>
+      </c>
+      <c r="F3">
+        <v>-0.009591416172535014</v>
+      </c>
+      <c r="G3">
+        <v>0.1504161056125368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02709998672510416</v>
+        <v>0.05558079881149715</v>
       </c>
       <c r="C4">
-        <v>0.009247318758201374</v>
+        <v>-0.06809359310848287</v>
       </c>
       <c r="D4">
-        <v>-0.07875938838393917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02486612550115006</v>
+      </c>
+      <c r="E4">
+        <v>0.03649956445252522</v>
+      </c>
+      <c r="F4">
+        <v>0.004164849468353789</v>
+      </c>
+      <c r="G4">
+        <v>0.1001524908200313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.009165945988992329</v>
+        <v>0.03645527857523179</v>
       </c>
       <c r="C6">
-        <v>0.01179613058562389</v>
+        <v>-0.0508355926264752</v>
       </c>
       <c r="D6">
-        <v>-0.07142717171583389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01715186637585956</v>
+      </c>
+      <c r="E6">
+        <v>0.04016329601836358</v>
+      </c>
+      <c r="F6">
+        <v>0.001304759296409119</v>
+      </c>
+      <c r="G6">
+        <v>0.08644622548870781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0002040564054664468</v>
+        <v>0.02064931511597251</v>
       </c>
       <c r="C7">
-        <v>0.01330691698554712</v>
+        <v>-0.03951922015473092</v>
       </c>
       <c r="D7">
-        <v>-0.03291819324072726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01399443852878442</v>
+      </c>
+      <c r="E7">
+        <v>0.007122311821434408</v>
+      </c>
+      <c r="F7">
+        <v>-0.006245113531406639</v>
+      </c>
+      <c r="G7">
+        <v>0.1229937825310041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003697551916821358</v>
+        <v>0.003272211711190355</v>
       </c>
       <c r="C8">
-        <v>0.003048516016287852</v>
+        <v>-0.02409309591513074</v>
       </c>
       <c r="D8">
-        <v>0.008611743385790478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003977337014642527</v>
+      </c>
+      <c r="E8">
+        <v>0.03131403372712593</v>
+      </c>
+      <c r="F8">
+        <v>0.002552557569925307</v>
+      </c>
+      <c r="G8">
+        <v>0.07099647488580571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01167696542807117</v>
+        <v>0.03282791387897715</v>
       </c>
       <c r="C9">
-        <v>0.009309940956709955</v>
+        <v>-0.05021098329370714</v>
       </c>
       <c r="D9">
-        <v>-0.05563660621177539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01656245423503752</v>
+      </c>
+      <c r="E9">
+        <v>0.0247700438789337</v>
+      </c>
+      <c r="F9">
+        <v>0.003530488855544039</v>
+      </c>
+      <c r="G9">
+        <v>0.1025235290440393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1486668767065374</v>
+        <v>0.09842986764759011</v>
       </c>
       <c r="C10">
-        <v>-0.1041840788037208</v>
+        <v>0.1830335731446236</v>
       </c>
       <c r="D10">
-        <v>0.1106296113726594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01566821497637939</v>
+      </c>
+      <c r="E10">
+        <v>0.01885682212318861</v>
+      </c>
+      <c r="F10">
+        <v>-0.02305095953803779</v>
+      </c>
+      <c r="G10">
+        <v>0.05354451385311167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00261149756044709</v>
+        <v>0.03517054607785833</v>
       </c>
       <c r="C11">
-        <v>-0.0005817616667033529</v>
+        <v>-0.0522446583123247</v>
       </c>
       <c r="D11">
-        <v>-0.05044029365578742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002544106621687056</v>
+      </c>
+      <c r="E11">
+        <v>0.01994750397705853</v>
+      </c>
+      <c r="F11">
+        <v>0.01524945882201087</v>
+      </c>
+      <c r="G11">
+        <v>0.09095420689820848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007025534936292597</v>
+        <v>0.03708363937110928</v>
       </c>
       <c r="C12">
-        <v>0.0023001702761879</v>
+        <v>-0.04713487142817548</v>
       </c>
       <c r="D12">
-        <v>-0.04456310490786715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006608815524670903</v>
+      </c>
+      <c r="E12">
+        <v>0.01002433513776673</v>
+      </c>
+      <c r="F12">
+        <v>-0.001069188525085179</v>
+      </c>
+      <c r="G12">
+        <v>0.08286873555793219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01615015517307049</v>
+        <v>0.01474386286349318</v>
       </c>
       <c r="C13">
-        <v>0.01495652358299918</v>
+        <v>-0.04200247586769409</v>
       </c>
       <c r="D13">
-        <v>-0.03457814428071067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02689226344975636</v>
+      </c>
+      <c r="E13">
+        <v>0.04048900706084892</v>
+      </c>
+      <c r="F13">
+        <v>-0.004682086209980205</v>
+      </c>
+      <c r="G13">
+        <v>0.1427615229665944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002350724692882998</v>
+        <v>0.008555503834767907</v>
       </c>
       <c r="C14">
-        <v>0.006759531180970408</v>
+        <v>-0.02858799166327266</v>
       </c>
       <c r="D14">
-        <v>-0.01933599255097851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01031235850411998</v>
+      </c>
+      <c r="E14">
+        <v>0.008169637559697915</v>
+      </c>
+      <c r="F14">
+        <v>-0.00970227238320618</v>
+      </c>
+      <c r="G14">
+        <v>0.1109137722618709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006110080944594863</v>
+        <v>0.03372195012220119</v>
       </c>
       <c r="C16">
-        <v>-0.003044520065897725</v>
+        <v>-0.04550564843588144</v>
       </c>
       <c r="D16">
-        <v>-0.03968080172270388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.00198292494183973</v>
+      </c>
+      <c r="E16">
+        <v>0.01499778290748187</v>
+      </c>
+      <c r="F16">
+        <v>-0.003199120035122218</v>
+      </c>
+      <c r="G16">
+        <v>0.09252092158521774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.008885035773258424</v>
+        <v>0.02132768373100831</v>
       </c>
       <c r="C19">
-        <v>0.009689600926754301</v>
+        <v>-0.0512790885669536</v>
       </c>
       <c r="D19">
-        <v>-0.040969468851727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01997186303234115</v>
+      </c>
+      <c r="E19">
+        <v>0.08600195218754729</v>
+      </c>
+      <c r="F19">
+        <v>0.00597068008387202</v>
+      </c>
+      <c r="G19">
+        <v>0.142481662095624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.002373132110645638</v>
+        <v>0.01550939081661858</v>
       </c>
       <c r="C20">
-        <v>0.01128405060495917</v>
+        <v>-0.04214261794456027</v>
       </c>
       <c r="D20">
-        <v>-0.03408793601470668</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01452143999438109</v>
+      </c>
+      <c r="E20">
+        <v>0.03842586543030976</v>
+      </c>
+      <c r="F20">
+        <v>-0.01904389447725119</v>
+      </c>
+      <c r="G20">
+        <v>0.1126896823555562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005076768699260566</v>
+        <v>0.01104818883099615</v>
       </c>
       <c r="C21">
-        <v>0.01206482660354686</v>
+        <v>-0.03905823803738585</v>
       </c>
       <c r="D21">
-        <v>-0.0153610628349494</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01966428920563932</v>
+      </c>
+      <c r="E21">
+        <v>0.04946773283452782</v>
+      </c>
+      <c r="F21">
+        <v>-0.006801929376834164</v>
+      </c>
+      <c r="G21">
+        <v>0.144345118504734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001003592227877319</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006739331926261054</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.001950891858284947</v>
+      </c>
+      <c r="E22">
+        <v>0.01507385513871584</v>
+      </c>
+      <c r="F22">
+        <v>0.009858449430958923</v>
+      </c>
+      <c r="G22">
+        <v>0.001530935887769303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001004991623931164</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.00673677344695815</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001947068751665995</v>
+      </c>
+      <c r="E23">
+        <v>0.01503849570192502</v>
+      </c>
+      <c r="F23">
+        <v>0.009825826416958948</v>
+      </c>
+      <c r="G23">
+        <v>0.00141263065703116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.001169380907600184</v>
+        <v>0.02937956845571285</v>
       </c>
       <c r="C24">
-        <v>0.005583108937953268</v>
+        <v>-0.04839349941072479</v>
       </c>
       <c r="D24">
-        <v>-0.0407781607149188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00723801117941524</v>
+      </c>
+      <c r="E24">
+        <v>0.0153020244867072</v>
+      </c>
+      <c r="F24">
+        <v>0.006751868234138628</v>
+      </c>
+      <c r="G24">
+        <v>0.09305902748132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01630693852017161</v>
+        <v>0.04265629367458783</v>
       </c>
       <c r="C25">
-        <v>0.001927632412304234</v>
+        <v>-0.05656407087612838</v>
       </c>
       <c r="D25">
-        <v>-0.05656173952754191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01128982434379769</v>
+      </c>
+      <c r="E25">
+        <v>0.005915289022137589</v>
+      </c>
+      <c r="F25">
+        <v>0.002553190689634326</v>
+      </c>
+      <c r="G25">
+        <v>0.09821603435527104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01111671947452795</v>
+        <v>0.01414922009359715</v>
       </c>
       <c r="C26">
-        <v>0.01881586232798203</v>
+        <v>-0.01192032162149488</v>
       </c>
       <c r="D26">
-        <v>0.0006790832901256987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02421372561155893</v>
+      </c>
+      <c r="E26">
+        <v>0.009418823934462956</v>
+      </c>
+      <c r="F26">
+        <v>-0.0082403376214496</v>
+      </c>
+      <c r="G26">
+        <v>0.0859051457124058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1944458269904696</v>
+        <v>0.1266314375537032</v>
       </c>
       <c r="C28">
-        <v>-0.1185033107273811</v>
+        <v>0.2418467501972858</v>
       </c>
       <c r="D28">
-        <v>0.1367197356995471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006931186027933609</v>
+      </c>
+      <c r="E28">
+        <v>0.006854835148350938</v>
+      </c>
+      <c r="F28">
+        <v>-0.01970199139043879</v>
+      </c>
+      <c r="G28">
+        <v>0.04744790885480218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007083321278405739</v>
+        <v>0.008909366639486022</v>
       </c>
       <c r="C29">
-        <v>0.003197721688567793</v>
+        <v>-0.02339173347086626</v>
       </c>
       <c r="D29">
-        <v>-0.01549052539089224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009364952237941889</v>
+      </c>
+      <c r="E29">
+        <v>0.004152268604601828</v>
+      </c>
+      <c r="F29">
+        <v>-0.01564240655782975</v>
+      </c>
+      <c r="G29">
+        <v>0.1030293404351815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01057755710621252</v>
+        <v>0.04075141467919929</v>
       </c>
       <c r="C30">
-        <v>0.0218582357684022</v>
+        <v>-0.06876042189528032</v>
       </c>
       <c r="D30">
-        <v>-0.09405777867578823</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02947998566359113</v>
+      </c>
+      <c r="E30">
+        <v>0.06778105202837324</v>
+      </c>
+      <c r="F30">
+        <v>0.03325418223803677</v>
+      </c>
+      <c r="G30">
+        <v>0.138422252353417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0221509356951973</v>
+        <v>0.05307612699197743</v>
       </c>
       <c r="C31">
-        <v>-0.008542605647414721</v>
+        <v>-0.03929536338233875</v>
       </c>
       <c r="D31">
-        <v>-0.02852970741647739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003754602222441109</v>
+      </c>
+      <c r="E31">
+        <v>-0.003672286831510995</v>
+      </c>
+      <c r="F31">
+        <v>-0.03935362281046215</v>
+      </c>
+      <c r="G31">
+        <v>0.09666788844537411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00422282713885332</v>
+        <v>0.002676544261971839</v>
       </c>
       <c r="C32">
-        <v>-0.006884032250500389</v>
+        <v>-0.02154710126021726</v>
       </c>
       <c r="D32">
-        <v>0.003761339759305439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002661121715477021</v>
+      </c>
+      <c r="E32">
+        <v>0.04012354360169437</v>
+      </c>
+      <c r="F32">
+        <v>0.03260852209030887</v>
+      </c>
+      <c r="G32">
+        <v>0.09177669627017315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.008968445890626087</v>
+        <v>0.02816637470843725</v>
       </c>
       <c r="C33">
-        <v>0.007460299864288144</v>
+        <v>-0.05110742767620069</v>
       </c>
       <c r="D33">
-        <v>-0.04181912034287437</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01644694655342692</v>
+      </c>
+      <c r="E33">
+        <v>0.04905415278458423</v>
+      </c>
+      <c r="F33">
+        <v>0.009448513796254292</v>
+      </c>
+      <c r="G33">
+        <v>0.1646895074400618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01243909421605448</v>
+        <v>0.04065076865998328</v>
       </c>
       <c r="C34">
-        <v>-0.01454583656762624</v>
+        <v>-0.0583370968328487</v>
       </c>
       <c r="D34">
-        <v>-0.05844877856408751</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004356116589188864</v>
+      </c>
+      <c r="E34">
+        <v>0.0111722562149861</v>
+      </c>
+      <c r="F34">
+        <v>0.01830302666532163</v>
+      </c>
+      <c r="G34">
+        <v>0.09466602572669247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01222497044156339</v>
+        <v>0.01567115320536779</v>
       </c>
       <c r="C36">
-        <v>0.004738672726906534</v>
+        <v>-0.01062951591509293</v>
       </c>
       <c r="D36">
-        <v>-0.003899481139482875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0129422344809596</v>
+      </c>
+      <c r="E36">
+        <v>0.0104796075032445</v>
+      </c>
+      <c r="F36">
+        <v>-0.009382815459124392</v>
+      </c>
+      <c r="G36">
+        <v>0.09405025011791449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0171167201838935</v>
+        <v>0.03167969838551937</v>
       </c>
       <c r="C38">
-        <v>-0.02007775726714967</v>
+        <v>-0.03007616963528109</v>
       </c>
       <c r="D38">
-        <v>-0.03860330508859584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007537952293702943</v>
+      </c>
+      <c r="E38">
+        <v>0.006501232878389419</v>
+      </c>
+      <c r="F38">
+        <v>-0.01894707782590042</v>
+      </c>
+      <c r="G38">
+        <v>0.08471587623119875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01090427184089779</v>
+        <v>0.03723378571641672</v>
       </c>
       <c r="C39">
-        <v>0.01758129487179635</v>
+        <v>-0.07891119194148483</v>
       </c>
       <c r="D39">
-        <v>-0.09792716653789221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01173142514424511</v>
+      </c>
+      <c r="E39">
+        <v>0.03071705224301892</v>
+      </c>
+      <c r="F39">
+        <v>0.01759247928481711</v>
+      </c>
+      <c r="G39">
+        <v>0.09169561184000279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01559249325292991</v>
+        <v>0.01373001132067852</v>
       </c>
       <c r="C40">
-        <v>0.002327655136730206</v>
+        <v>-0.0379791045446167</v>
       </c>
       <c r="D40">
-        <v>-0.02998216019987873</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01484940252284422</v>
+      </c>
+      <c r="E40">
+        <v>0.03320405072779273</v>
+      </c>
+      <c r="F40">
+        <v>-0.01299063940957427</v>
+      </c>
+      <c r="G40">
+        <v>0.123862793525097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01345856883619896</v>
+        <v>0.01992987154614786</v>
       </c>
       <c r="C41">
-        <v>-0.005035355586570063</v>
+        <v>-0.003984164816777266</v>
       </c>
       <c r="D41">
-        <v>0.01134532269090009</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004775266701869806</v>
+      </c>
+      <c r="E41">
+        <v>0.007921248129232493</v>
+      </c>
+      <c r="F41">
+        <v>-0.01661254747573742</v>
+      </c>
+      <c r="G41">
+        <v>0.08764581572375564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03749452268699049</v>
+        <v>0.007669974173090178</v>
       </c>
       <c r="C42">
-        <v>0.08480454169140822</v>
+        <v>-0.02710660059690225</v>
       </c>
       <c r="D42">
-        <v>-0.1055760881704313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08732554838868757</v>
+      </c>
+      <c r="E42">
+        <v>0.01192926462879662</v>
+      </c>
+      <c r="F42">
+        <v>-0.03982726758128306</v>
+      </c>
+      <c r="G42">
+        <v>-0.02630904675298819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01427837369770081</v>
+        <v>0.03539729301257902</v>
       </c>
       <c r="C43">
-        <v>-0.00468383301580067</v>
+        <v>-0.01956428366140224</v>
       </c>
       <c r="D43">
-        <v>0.009017303454758447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006094333479598873</v>
+      </c>
+      <c r="E43">
+        <v>0.02132547551304078</v>
+      </c>
+      <c r="F43">
+        <v>-0.01129312224691342</v>
+      </c>
+      <c r="G43">
+        <v>0.1207677645164659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002187245611738462</v>
+        <v>0.01386288460622829</v>
       </c>
       <c r="C44">
-        <v>0.004673606480091961</v>
+        <v>-0.05843072582244812</v>
       </c>
       <c r="D44">
-        <v>-0.04661055335458531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.00700286842386275</v>
+      </c>
+      <c r="E44">
+        <v>0.02626041162000198</v>
+      </c>
+      <c r="F44">
+        <v>-0.01136528073000603</v>
+      </c>
+      <c r="G44">
+        <v>0.110738316695767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006642755613876391</v>
+        <v>0.009156987336720993</v>
       </c>
       <c r="C46">
-        <v>0.007022374721125439</v>
+        <v>-0.01568321699557979</v>
       </c>
       <c r="D46">
-        <v>0.00286234373228172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01250406662317971</v>
+      </c>
+      <c r="E46">
+        <v>-0.001814588654324697</v>
+      </c>
+      <c r="F46">
+        <v>-0.02059236983438888</v>
+      </c>
+      <c r="G46">
+        <v>0.1101792324143809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02515042846617787</v>
+        <v>0.07869398470653609</v>
       </c>
       <c r="C47">
-        <v>-0.01832386211650765</v>
+        <v>-0.06958818410838422</v>
       </c>
       <c r="D47">
-        <v>-0.07536677192334255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00516935659810339</v>
+      </c>
+      <c r="E47">
+        <v>-0.01176003633309869</v>
+      </c>
+      <c r="F47">
+        <v>-0.05461578841989467</v>
+      </c>
+      <c r="G47">
+        <v>0.08221596257936761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.007312339357743797</v>
+        <v>0.0180905736083239</v>
       </c>
       <c r="C48">
-        <v>-0.00341611988254001</v>
+        <v>-0.01344954732944844</v>
       </c>
       <c r="D48">
-        <v>-0.01469197527751201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002577795051287749</v>
+      </c>
+      <c r="E48">
+        <v>0.006777056959807972</v>
+      </c>
+      <c r="F48">
+        <v>-0.02068060611703319</v>
+      </c>
+      <c r="G48">
+        <v>0.1002197161922365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03113599033184359</v>
+        <v>0.0743726652209276</v>
       </c>
       <c r="C50">
-        <v>-0.02038251237020173</v>
+        <v>-0.0729091399814093</v>
       </c>
       <c r="D50">
-        <v>-0.06706318611410624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002123066598194531</v>
+      </c>
+      <c r="E50">
+        <v>-0.008026488773305114</v>
+      </c>
+      <c r="F50">
+        <v>-0.05541405227783867</v>
+      </c>
+      <c r="G50">
+        <v>0.0927107119247461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00894548500632851</v>
+        <v>0.0132942341035188</v>
       </c>
       <c r="C51">
-        <v>0.001163168646097825</v>
+        <v>-0.0374423003110626</v>
       </c>
       <c r="D51">
-        <v>-0.02442459944177508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01083550434027841</v>
+      </c>
+      <c r="E51">
+        <v>0.02907515676648394</v>
+      </c>
+      <c r="F51">
+        <v>0.01536321475731686</v>
+      </c>
+      <c r="G51">
+        <v>0.1247496710564456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03896505885194453</v>
+        <v>0.08118757892363523</v>
       </c>
       <c r="C53">
-        <v>-0.02479188776665624</v>
+        <v>-0.08481472479498246</v>
       </c>
       <c r="D53">
-        <v>-0.1174163455544703</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00331229410004725</v>
+      </c>
+      <c r="E53">
+        <v>-0.02870849015068068</v>
+      </c>
+      <c r="F53">
+        <v>-0.06040725879634438</v>
+      </c>
+      <c r="G53">
+        <v>0.08976211793365292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01605144807247217</v>
+        <v>0.03172075793167319</v>
       </c>
       <c r="C54">
-        <v>-0.01397634162947902</v>
+        <v>-0.0190176288812367</v>
       </c>
       <c r="D54">
-        <v>-0.0001655451466915116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009325333971865676</v>
+      </c>
+      <c r="E54">
+        <v>0.02037573332439213</v>
+      </c>
+      <c r="F54">
+        <v>-0.008855318043455922</v>
+      </c>
+      <c r="G54">
+        <v>0.1109876543000896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0225961311802503</v>
+        <v>0.0732102350842271</v>
       </c>
       <c r="C55">
-        <v>-0.01578500532348714</v>
+        <v>-0.06785655799800817</v>
       </c>
       <c r="D55">
-        <v>-0.09544190805112453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005127678482279619</v>
+      </c>
+      <c r="E55">
+        <v>-0.02735814646807477</v>
+      </c>
+      <c r="F55">
+        <v>-0.06040831365353198</v>
+      </c>
+      <c r="G55">
+        <v>0.06508891919695374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04582596518366372</v>
+        <v>0.1362575641190149</v>
       </c>
       <c r="C56">
-        <v>-0.03446186756349698</v>
+        <v>-0.1077810659620163</v>
       </c>
       <c r="D56">
-        <v>-0.1562385641432414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0130245607516759</v>
+      </c>
+      <c r="E56">
+        <v>-0.03942968720821968</v>
+      </c>
+      <c r="F56">
+        <v>-0.07660661049497594</v>
+      </c>
+      <c r="G56">
+        <v>0.03500971162217292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01837999927970115</v>
+        <v>0.005465596117021796</v>
       </c>
       <c r="C57">
-        <v>0.01451647796882619</v>
+        <v>-0.005902281221116929</v>
       </c>
       <c r="D57">
-        <v>-0.02994846253794663</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02263712239193687</v>
+      </c>
+      <c r="E57">
+        <v>0.02464854420693027</v>
+      </c>
+      <c r="F57">
+        <v>0.004307729566150257</v>
+      </c>
+      <c r="G57">
+        <v>0.02202256568748985</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.005594599246999201</v>
+        <v>0.04744514255407406</v>
       </c>
       <c r="C58">
-        <v>0.006210131119241776</v>
+        <v>-0.04679005732611805</v>
       </c>
       <c r="D58">
-        <v>-0.206306318952104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02388817694145464</v>
+      </c>
+      <c r="E58">
+        <v>0.8729049494689468</v>
+      </c>
+      <c r="F58">
+        <v>-0.3690965038917556</v>
+      </c>
+      <c r="G58">
+        <v>-0.2443083824283156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2176516131205674</v>
+        <v>0.1589899367843109</v>
       </c>
       <c r="C59">
-        <v>-0.1390873495684003</v>
+        <v>0.2079665440821241</v>
       </c>
       <c r="D59">
-        <v>0.1139961776362861</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01153880520402745</v>
+      </c>
+      <c r="E59">
+        <v>0.02344748922118189</v>
+      </c>
+      <c r="F59">
+        <v>-0.005986323718497333</v>
+      </c>
+      <c r="G59">
+        <v>0.04168603934748218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2005110330606395</v>
+        <v>0.2898237952296437</v>
       </c>
       <c r="C60">
-        <v>-0.1058484053107969</v>
+        <v>-0.1116041284007383</v>
       </c>
       <c r="D60">
-        <v>-0.1919770057265315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01264760309815982</v>
+      </c>
+      <c r="E60">
+        <v>0.04675279627340771</v>
+      </c>
+      <c r="F60">
+        <v>0.3478103260592534</v>
+      </c>
+      <c r="G60">
+        <v>-0.1591152113178271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0004541347323645625</v>
+        <v>0.03906876845135054</v>
       </c>
       <c r="C61">
-        <v>0.003848893254553629</v>
+        <v>-0.06525888385785175</v>
       </c>
       <c r="D61">
-        <v>-0.0759177201929956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005908320398794269</v>
+      </c>
+      <c r="E61">
+        <v>0.02730945254712833</v>
+      </c>
+      <c r="F61">
+        <v>0.01131777452358794</v>
+      </c>
+      <c r="G61">
+        <v>0.09940402105555173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.003704031801018968</v>
+        <v>0.01481908455776847</v>
       </c>
       <c r="C63">
-        <v>0.006323338018188949</v>
+        <v>-0.0307908438080276</v>
       </c>
       <c r="D63">
-        <v>-0.02115319726276754</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008830820274862155</v>
+      </c>
+      <c r="E63">
+        <v>0.005752213906498468</v>
+      </c>
+      <c r="F63">
+        <v>-0.01535457621614821</v>
+      </c>
+      <c r="G63">
+        <v>0.09547193803265702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02533235162991472</v>
+        <v>0.04904827167838691</v>
       </c>
       <c r="C64">
-        <v>-0.0100704522141236</v>
+        <v>-0.04720709860042721</v>
       </c>
       <c r="D64">
-        <v>-0.05424693322861584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006235250694430276</v>
+      </c>
+      <c r="E64">
+        <v>0.0061031453618445</v>
+      </c>
+      <c r="F64">
+        <v>0.002465504978906525</v>
+      </c>
+      <c r="G64">
+        <v>0.09850998964610688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03251364739379741</v>
+        <v>0.07512476692620981</v>
       </c>
       <c r="C65">
-        <v>-0.0006778144104581298</v>
+        <v>-0.05887488696214822</v>
       </c>
       <c r="D65">
-        <v>-0.112900318267686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01684603403465655</v>
+      </c>
+      <c r="E65">
+        <v>0.04498348619628253</v>
+      </c>
+      <c r="F65">
+        <v>0.02111326466817819</v>
+      </c>
+      <c r="G65">
+        <v>0.04406384690579393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.010109341138812</v>
+        <v>0.05040144094884438</v>
       </c>
       <c r="C66">
-        <v>0.01680172759630753</v>
+        <v>-0.1053832860459999</v>
       </c>
       <c r="D66">
-        <v>-0.1382966450655788</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01205956433778084</v>
+      </c>
+      <c r="E66">
+        <v>0.04656967384702385</v>
+      </c>
+      <c r="F66">
+        <v>0.02844593830219099</v>
+      </c>
+      <c r="G66">
+        <v>0.1061301983236099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03928768261197504</v>
+        <v>0.05476197849947012</v>
       </c>
       <c r="C67">
-        <v>-0.03020779019879379</v>
+        <v>-0.03433458283646772</v>
       </c>
       <c r="D67">
-        <v>-0.06053913644100725</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006135289667048088</v>
+      </c>
+      <c r="E67">
+        <v>-0.003631302969233158</v>
+      </c>
+      <c r="F67">
+        <v>-0.01693891183838803</v>
+      </c>
+      <c r="G67">
+        <v>0.07127650399364374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2280465861290254</v>
+        <v>0.1565558018066388</v>
       </c>
       <c r="C68">
-        <v>-0.1232206400986172</v>
+        <v>0.2709048252621151</v>
       </c>
       <c r="D68">
-        <v>0.1729586183639735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005458872693086256</v>
+      </c>
+      <c r="E68">
+        <v>0.009483011418375781</v>
+      </c>
+      <c r="F68">
+        <v>-0.04386799757877527</v>
+      </c>
+      <c r="G68">
+        <v>0.02774823609750075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02961004068203081</v>
+        <v>0.08183761096673042</v>
       </c>
       <c r="C69">
-        <v>-0.02569163202805469</v>
+        <v>-0.07255538472272564</v>
       </c>
       <c r="D69">
-        <v>-0.07821653702695687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009041947214895582</v>
+      </c>
+      <c r="E69">
+        <v>-0.02468396518321726</v>
+      </c>
+      <c r="F69">
+        <v>-0.03551039017919952</v>
+      </c>
+      <c r="G69">
+        <v>0.1006029471282944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1860284626320827</v>
+        <v>0.14183419071323</v>
       </c>
       <c r="C71">
-        <v>-0.1080663048397778</v>
+        <v>0.2286491298948757</v>
       </c>
       <c r="D71">
-        <v>0.1162413372014708</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002853871936775814</v>
+      </c>
+      <c r="E71">
+        <v>0.03184780771062105</v>
+      </c>
+      <c r="F71">
+        <v>-0.03220575971188084</v>
+      </c>
+      <c r="G71">
+        <v>0.0697044630277279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01765435320729519</v>
+        <v>0.08672120966983607</v>
       </c>
       <c r="C72">
-        <v>-0.01858983508429946</v>
+        <v>-0.06904494248779812</v>
       </c>
       <c r="D72">
-        <v>-0.0956514780542425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008794579528533325</v>
+      </c>
+      <c r="E72">
+        <v>-0.01119661097450855</v>
+      </c>
+      <c r="F72">
+        <v>0.02914722679502629</v>
+      </c>
+      <c r="G72">
+        <v>0.0891967109655263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2527195159097967</v>
+        <v>0.3783079994410595</v>
       </c>
       <c r="C73">
-        <v>-0.1285504672937324</v>
+        <v>-0.1148858777470306</v>
       </c>
       <c r="D73">
-        <v>-0.2928648521716158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02231618037062686</v>
+      </c>
+      <c r="E73">
+        <v>0.1412693057292324</v>
+      </c>
+      <c r="F73">
+        <v>0.5703457140072645</v>
+      </c>
+      <c r="G73">
+        <v>-0.2819424581118402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04755027934351316</v>
+        <v>0.1053241573404013</v>
       </c>
       <c r="C74">
-        <v>-0.03676614868601956</v>
+        <v>-0.1098375818315028</v>
       </c>
       <c r="D74">
-        <v>-0.1676833993458596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.00939233743362719</v>
+      </c>
+      <c r="E74">
+        <v>-0.01341043647547906</v>
+      </c>
+      <c r="F74">
+        <v>-0.06647456552245395</v>
+      </c>
+      <c r="G74">
+        <v>0.07865641043037618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1174921945852549</v>
+        <v>0.2478268949100964</v>
       </c>
       <c r="C75">
-        <v>-0.08555341181095755</v>
+        <v>-0.1514555591451124</v>
       </c>
       <c r="D75">
-        <v>-0.2918127586893336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03141083751683648</v>
+      </c>
+      <c r="E75">
+        <v>-0.08484570354833613</v>
+      </c>
+      <c r="F75">
+        <v>-0.1615810353600334</v>
+      </c>
+      <c r="G75">
+        <v>-0.02963033642450928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05091558813615359</v>
+        <v>0.1176416626985623</v>
       </c>
       <c r="C76">
-        <v>-0.04453214123652191</v>
+        <v>-0.1113488144028835</v>
       </c>
       <c r="D76">
-        <v>-0.1921605929478957</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01743052678129905</v>
+      </c>
+      <c r="E76">
+        <v>-0.03316130036283991</v>
+      </c>
+      <c r="F76">
+        <v>-0.09462571055806032</v>
+      </c>
+      <c r="G76">
+        <v>0.05531765152823835</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01762711005075875</v>
+        <v>0.07006798769126853</v>
       </c>
       <c r="C77">
-        <v>-0.0004300480432623797</v>
+        <v>-0.05841007734103523</v>
       </c>
       <c r="D77">
-        <v>-0.08249025630213451</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01014801150554999</v>
+      </c>
+      <c r="E77">
+        <v>0.05281635636821848</v>
+      </c>
+      <c r="F77">
+        <v>0.0004229645645795955</v>
+      </c>
+      <c r="G77">
+        <v>0.06890187482317967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.009196595764148944</v>
+        <v>0.04255607571802351</v>
       </c>
       <c r="C78">
-        <v>-0.001011157718079154</v>
+        <v>-0.05067364424944362</v>
       </c>
       <c r="D78">
-        <v>-0.06576966032658471</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006259471367944097</v>
+      </c>
+      <c r="E78">
+        <v>0.03522814874202453</v>
+      </c>
+      <c r="F78">
+        <v>0.03093552720846107</v>
+      </c>
+      <c r="G78">
+        <v>0.1024954704304894</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0008224076072689614</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005300519668821428</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.000341982811569304</v>
+      </c>
+      <c r="E79">
+        <v>0.003542925562397266</v>
+      </c>
+      <c r="F79">
+        <v>0.0008263295965239162</v>
+      </c>
+      <c r="G79">
+        <v>0.001899084887273088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0356698636103716</v>
+        <v>0.04402396246444052</v>
       </c>
       <c r="C80">
-        <v>-0.009102566413269592</v>
+        <v>-0.0495906351331841</v>
       </c>
       <c r="D80">
-        <v>-0.08083516965681808</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0132609345841233</v>
+      </c>
+      <c r="E80">
+        <v>0.02831007133963053</v>
+      </c>
+      <c r="F80">
+        <v>0.003674097518980988</v>
+      </c>
+      <c r="G80">
+        <v>0.05325678380317776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06174626932274217</v>
+        <v>0.1377260116971376</v>
       </c>
       <c r="C81">
-        <v>-0.04486102783875267</v>
+        <v>-0.09798115619797185</v>
       </c>
       <c r="D81">
-        <v>-0.1655397315748509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01521476109863546</v>
+      </c>
+      <c r="E81">
+        <v>-0.04851307027709353</v>
+      </c>
+      <c r="F81">
+        <v>-0.1240546573721009</v>
+      </c>
+      <c r="G81">
+        <v>0.02007429089320648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.003311376082538543</v>
+        <v>0.1417681698392902</v>
       </c>
       <c r="C82">
-        <v>-0.002134718989150067</v>
+        <v>-0.08360321748240156</v>
       </c>
       <c r="D82">
-        <v>-0.0006715063110960699</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01101331003057094</v>
+      </c>
+      <c r="E82">
+        <v>-0.116161981047063</v>
+      </c>
+      <c r="F82">
+        <v>-0.05416081810996916</v>
+      </c>
+      <c r="G82">
+        <v>0.05611522531763477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01333159934663317</v>
+        <v>0.03522784821335397</v>
       </c>
       <c r="C83">
-        <v>-0.003790358345045702</v>
+        <v>-0.02975922548704027</v>
       </c>
       <c r="D83">
-        <v>-0.0203823265305882</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.00595846460159096</v>
+      </c>
+      <c r="E83">
+        <v>0.03111952504192169</v>
+      </c>
+      <c r="F83">
+        <v>0.02597768384481676</v>
+      </c>
+      <c r="G83">
+        <v>0.06023414478080619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1019282648223088</v>
+        <v>0.2091107974664955</v>
       </c>
       <c r="C85">
-        <v>-0.06220626449562974</v>
+        <v>-0.1469122552530311</v>
       </c>
       <c r="D85">
-        <v>-0.2501280700773739</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01715005449148041</v>
+      </c>
+      <c r="E85">
+        <v>-0.1105174518169315</v>
+      </c>
+      <c r="F85">
+        <v>-0.0995243125198972</v>
+      </c>
+      <c r="G85">
+        <v>-0.06871917332558812</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01239584641280237</v>
+        <v>0.01404574837855006</v>
       </c>
       <c r="C86">
-        <v>-0.001816636539267134</v>
+        <v>-0.02876008920748924</v>
       </c>
       <c r="D86">
-        <v>-0.04108861305895618</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01152904396072846</v>
+      </c>
+      <c r="E86">
+        <v>0.04935617906867031</v>
+      </c>
+      <c r="F86">
+        <v>0.007609544853046615</v>
+      </c>
+      <c r="G86">
+        <v>0.1910165941244838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006958034272911154</v>
+        <v>0.02230081953802123</v>
       </c>
       <c r="C87">
-        <v>0.01397927140117376</v>
+        <v>-0.01938448034816858</v>
       </c>
       <c r="D87">
-        <v>-0.0324861416842933</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0123185138050407</v>
+      </c>
+      <c r="E87">
+        <v>0.09923004680106566</v>
+      </c>
+      <c r="F87">
+        <v>-0.007043633979307956</v>
+      </c>
+      <c r="G87">
+        <v>0.1239876119026999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04785473957642842</v>
+        <v>0.09377069395681858</v>
       </c>
       <c r="C88">
-        <v>-0.00304417488802606</v>
+        <v>-0.06881639601106161</v>
       </c>
       <c r="D88">
-        <v>-0.04307075483107677</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02205793877621178</v>
+      </c>
+      <c r="E88">
+        <v>-0.005551574991997137</v>
+      </c>
+      <c r="F88">
+        <v>-0.01973406469329279</v>
+      </c>
+      <c r="G88">
+        <v>0.1026609245623347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3355607544790513</v>
+        <v>0.230390823663176</v>
       </c>
       <c r="C89">
-        <v>-0.1909626782240384</v>
+        <v>0.3684637584064908</v>
       </c>
       <c r="D89">
-        <v>0.2139661630592166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0002027381607867768</v>
+      </c>
+      <c r="E89">
+        <v>-0.0209293567938205</v>
+      </c>
+      <c r="F89">
+        <v>-0.02445488358950035</v>
+      </c>
+      <c r="G89">
+        <v>0.07008460408399245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.28173929244857</v>
+        <v>0.2078395541391695</v>
       </c>
       <c r="C90">
-        <v>-0.1640048184775753</v>
+        <v>0.3170126186492176</v>
       </c>
       <c r="D90">
-        <v>0.1881238015107598</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004616888236830545</v>
+      </c>
+      <c r="E90">
+        <v>-0.0001048558184993588</v>
+      </c>
+      <c r="F90">
+        <v>-0.05110171205600669</v>
+      </c>
+      <c r="G90">
+        <v>0.04492910099898075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09613552269867286</v>
+        <v>0.185063100008567</v>
       </c>
       <c r="C91">
-        <v>-0.07299247427142748</v>
+        <v>-0.139611527659297</v>
       </c>
       <c r="D91">
-        <v>-0.2157561141480678</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02223077066590472</v>
+      </c>
+      <c r="E91">
+        <v>-0.07619173877597417</v>
+      </c>
+      <c r="F91">
+        <v>-0.1303343386793731</v>
+      </c>
+      <c r="G91">
+        <v>0.02694093440442246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2358111464252656</v>
+        <v>0.1996972619343199</v>
       </c>
       <c r="C92">
-        <v>-0.1733661637669786</v>
+        <v>0.2566699239079577</v>
       </c>
       <c r="D92">
-        <v>0.09425968513046526</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03845183804648956</v>
+      </c>
+      <c r="E92">
+        <v>0.03117178160952545</v>
+      </c>
+      <c r="F92">
+        <v>-0.06745308438340832</v>
+      </c>
+      <c r="G92">
+        <v>0.1125162264648866</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2995133466257085</v>
+        <v>0.2322415541559247</v>
       </c>
       <c r="C93">
-        <v>-0.1815120370159768</v>
+        <v>0.3115708918886939</v>
       </c>
       <c r="D93">
-        <v>0.151244755232508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01153025045091738</v>
+      </c>
+      <c r="E93">
+        <v>0.001474922101967146</v>
+      </c>
+      <c r="F93">
+        <v>-0.04592703580713092</v>
+      </c>
+      <c r="G93">
+        <v>0.05633915247395046</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1314594859949644</v>
+        <v>0.3177668014353969</v>
       </c>
       <c r="C94">
-        <v>-0.07053959688236822</v>
+        <v>-0.1837978334641049</v>
       </c>
       <c r="D94">
-        <v>-0.2688475260033324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02009582883863224</v>
+      </c>
+      <c r="E94">
+        <v>-0.2705789202944035</v>
+      </c>
+      <c r="F94">
+        <v>-0.4475417945967711</v>
+      </c>
+      <c r="G94">
+        <v>-0.4034572299947187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00331132576120515</v>
+        <v>0.09697341992014742</v>
       </c>
       <c r="C95">
-        <v>-0.009638037660279302</v>
+        <v>-0.08480560320709961</v>
       </c>
       <c r="D95">
-        <v>-0.12803444637205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.00973961793570609</v>
+      </c>
+      <c r="E95">
+        <v>0.09669967395209338</v>
+      </c>
+      <c r="F95">
+        <v>0.1617317666694874</v>
+      </c>
+      <c r="G95">
+        <v>0.0231694700931339</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.137280182685891</v>
+        <v>0.1938915649175276</v>
       </c>
       <c r="C98">
-        <v>-0.09862556571931659</v>
+        <v>-0.04384709273449597</v>
       </c>
       <c r="D98">
-        <v>-0.1369584241863991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01229997736611826</v>
+      </c>
+      <c r="E98">
+        <v>0.1006033924177269</v>
+      </c>
+      <c r="F98">
+        <v>0.2339127921143938</v>
+      </c>
+      <c r="G98">
+        <v>-0.02361519585958993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006805782985718972</v>
+        <v>0.008677631077697121</v>
       </c>
       <c r="C101">
-        <v>0.003164996405007967</v>
+        <v>-0.0233711530063822</v>
       </c>
       <c r="D101">
-        <v>-0.01531264248536267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009193799303599101</v>
+      </c>
+      <c r="E101">
+        <v>0.003907547636326683</v>
+      </c>
+      <c r="F101">
+        <v>-0.01653814955150178</v>
+      </c>
+      <c r="G101">
+        <v>0.1021007272271923</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05731454842158657</v>
+        <v>0.11438423912183</v>
       </c>
       <c r="C102">
-        <v>-0.02684037092749782</v>
+        <v>-0.08202487077658301</v>
       </c>
       <c r="D102">
-        <v>-0.1275422902240345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0007515620596167964</v>
+      </c>
+      <c r="E102">
+        <v>-0.03932418401534852</v>
+      </c>
+      <c r="F102">
+        <v>-0.03705990939167033</v>
+      </c>
+      <c r="G102">
+        <v>0.01053952857806429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5114410962683289</v>
+        <v>0.02140146310937674</v>
       </c>
       <c r="C104">
-        <v>0.8489554802147924</v>
+        <v>0.02982743904187861</v>
       </c>
       <c r="D104">
-        <v>0.02446504013870882</v>
+        <v>0.9877331355599969</v>
+      </c>
+      <c r="E104">
+        <v>-0.05758741340438627</v>
+      </c>
+      <c r="F104">
+        <v>-0.03021360705251026</v>
+      </c>
+      <c r="G104">
+        <v>-0.0407322800930711</v>
       </c>
     </row>
   </sheetData>
